--- a/data/output/seat_status_classroom_image2.xlsx
+++ b/data/output/seat_status_classroom_image2.xlsx
@@ -486,13 +486,13 @@
         <v>1444.913330078125</v>
       </c>
       <c r="D2" t="n">
-        <v>742.3496704101562</v>
+        <v>742.3497924804688</v>
       </c>
       <c r="E2" t="n">
         <v>1380.969360351562</v>
       </c>
       <c r="F2" t="n">
-        <v>688.9577026367188</v>
+        <v>688.957763671875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,19 +507,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1244.940185546875</v>
+        <v>1244.940307617188</v>
       </c>
       <c r="B3" t="n">
         <v>648.174560546875</v>
       </c>
       <c r="C3" t="n">
-        <v>1339.030395507812</v>
+        <v>1339.030639648438</v>
       </c>
       <c r="D3" t="n">
         <v>733.0839233398438</v>
       </c>
       <c r="E3" t="n">
-        <v>1291.9853515625</v>
+        <v>1291.985473632812</v>
       </c>
       <c r="F3" t="n">
         <v>690.6292724609375</v>
@@ -537,19 +537,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102.5195846557617</v>
+        <v>102.5195693969727</v>
       </c>
       <c r="B4" t="n">
         <v>673.8232421875</v>
       </c>
       <c r="C4" t="n">
-        <v>213.0860443115234</v>
+        <v>213.0860748291016</v>
       </c>
       <c r="D4" t="n">
         <v>738.6068725585938</v>
       </c>
       <c r="E4" t="n">
-        <v>157.8028106689453</v>
+        <v>157.8028259277344</v>
       </c>
       <c r="F4" t="n">
         <v>706.215087890625</v>
@@ -570,13 +570,13 @@
         <v>748.6539306640625</v>
       </c>
       <c r="B5" t="n">
-        <v>681.2215576171875</v>
+        <v>681.2216186523438</v>
       </c>
       <c r="C5" t="n">
         <v>898.4948120117188</v>
       </c>
       <c r="D5" t="n">
-        <v>778.5651245117188</v>
+        <v>778.5650634765625</v>
       </c>
       <c r="E5" t="n">
         <v>823.5743408203125</v>
@@ -630,19 +630,19 @@
         <v>127.5724792480469</v>
       </c>
       <c r="B7" t="n">
-        <v>712.1087036132812</v>
+        <v>712.1087646484375</v>
       </c>
       <c r="C7" t="n">
         <v>213.5428924560547</v>
       </c>
       <c r="D7" t="n">
-        <v>783.7921752929688</v>
+        <v>783.792236328125</v>
       </c>
       <c r="E7" t="n">
         <v>170.5576782226562</v>
       </c>
       <c r="F7" t="n">
-        <v>747.950439453125</v>
+        <v>747.9505004882812</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -693,13 +693,13 @@
         <v>699.7006225585938</v>
       </c>
       <c r="C9" t="n">
-        <v>699.072021484375</v>
+        <v>699.0720825195312</v>
       </c>
       <c r="D9" t="n">
         <v>823.74951171875</v>
       </c>
       <c r="E9" t="n">
-        <v>588.4393310546875</v>
+        <v>588.4393920898438</v>
       </c>
       <c r="F9" t="n">
         <v>761.72509765625</v>
@@ -753,13 +753,13 @@
         <v>730.1297607421875</v>
       </c>
       <c r="C11" t="n">
-        <v>193.0907440185547</v>
+        <v>193.0907287597656</v>
       </c>
       <c r="D11" t="n">
         <v>811.7968139648438</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2477111816406</v>
+        <v>129.2476959228516</v>
       </c>
       <c r="F11" t="n">
         <v>770.9632568359375</v>
@@ -777,19 +777,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>574.8504638671875</v>
+        <v>574.8504028320312</v>
       </c>
       <c r="B12" t="n">
         <v>719.5870361328125</v>
       </c>
       <c r="C12" t="n">
-        <v>729.4849853515625</v>
+        <v>729.4849243164062</v>
       </c>
       <c r="D12" t="n">
         <v>827.6929321289062</v>
       </c>
       <c r="E12" t="n">
-        <v>652.167724609375</v>
+        <v>652.1676635742188</v>
       </c>
       <c r="F12" t="n">
         <v>773.6400146484375</v>
@@ -810,13 +810,13 @@
         <v>991.3088989257812</v>
       </c>
       <c r="B13" t="n">
-        <v>719.990234375</v>
+        <v>719.9902954101562</v>
       </c>
       <c r="C13" t="n">
         <v>1132.587524414062</v>
       </c>
       <c r="D13" t="n">
-        <v>892.6896362304688</v>
+        <v>892.6895751953125</v>
       </c>
       <c r="E13" t="n">
         <v>1061.9482421875</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>378.8390197753906</v>
+        <v>378.8389892578125</v>
       </c>
       <c r="B14" t="n">
         <v>755.994384765625</v>
       </c>
       <c r="C14" t="n">
-        <v>529.4431762695312</v>
+        <v>529.4432373046875</v>
       </c>
       <c r="D14" t="n">
         <v>860.1617431640625</v>
@@ -873,13 +873,13 @@
         <v>762.3685302734375</v>
       </c>
       <c r="C15" t="n">
-        <v>366.7446899414062</v>
+        <v>366.7447204589844</v>
       </c>
       <c r="D15" t="n">
         <v>878.8646850585938</v>
       </c>
       <c r="E15" t="n">
-        <v>312.3579406738281</v>
+        <v>312.3579711914062</v>
       </c>
       <c r="F15" t="n">
         <v>820.6165771484375</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>374.0459289550781</v>
+        <v>374.0459899902344</v>
       </c>
       <c r="B18" t="n">
         <v>760.0640869140625</v>
@@ -969,7 +969,7 @@
         <v>1088.662719726562</v>
       </c>
       <c r="E18" t="n">
-        <v>456.960205078125</v>
+        <v>456.9602661132812</v>
       </c>
       <c r="F18" t="n">
         <v>924.3634033203125</v>
@@ -993,13 +993,13 @@
         <v>786.2266235351562</v>
       </c>
       <c r="C19" t="n">
-        <v>324.8753051757812</v>
+        <v>324.8753967285156</v>
       </c>
       <c r="D19" t="n">
         <v>1077.751098632812</v>
       </c>
       <c r="E19" t="n">
-        <v>194.4680480957031</v>
+        <v>194.4680938720703</v>
       </c>
       <c r="F19" t="n">
         <v>931.9888916015625</v>
@@ -1080,19 +1080,19 @@
         <v>31.38969421386719</v>
       </c>
       <c r="B22" t="n">
-        <v>978.2495727539062</v>
+        <v>978.24951171875</v>
       </c>
       <c r="C22" t="n">
         <v>394.7884826660156</v>
       </c>
       <c r="D22" t="n">
-        <v>1199.018920898438</v>
+        <v>1199.018798828125</v>
       </c>
       <c r="E22" t="n">
         <v>213.0890808105469</v>
       </c>
       <c r="F22" t="n">
-        <v>1088.63427734375</v>
+        <v>1088.634155273438</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>

--- a/data/output/seat_status_classroom_image2.xlsx
+++ b/data/output/seat_status_classroom_image2.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1317.025390625</v>
+        <v>1316.904541015625</v>
       </c>
       <c r="B2" t="n">
-        <v>635.5657348632812</v>
+        <v>635.994384765625</v>
       </c>
       <c r="C2" t="n">
-        <v>1444.913330078125</v>
+        <v>1444.794921875</v>
       </c>
       <c r="D2" t="n">
-        <v>742.3497924804688</v>
+        <v>742.2039794921875</v>
       </c>
       <c r="E2" t="n">
-        <v>1380.969360351562</v>
+        <v>1380.849731445312</v>
       </c>
       <c r="F2" t="n">
-        <v>688.957763671875</v>
+        <v>689.0991821289062</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1244.940307617188</v>
+        <v>1245.21337890625</v>
       </c>
       <c r="B3" t="n">
-        <v>648.174560546875</v>
+        <v>647.1491088867188</v>
       </c>
       <c r="C3" t="n">
-        <v>1339.030639648438</v>
+        <v>1338.431030273438</v>
       </c>
       <c r="D3" t="n">
-        <v>733.0839233398438</v>
+        <v>733.0133666992188</v>
       </c>
       <c r="E3" t="n">
-        <v>1291.985473632812</v>
+        <v>1291.822265625</v>
       </c>
       <c r="F3" t="n">
-        <v>690.6292724609375</v>
+        <v>690.0812377929688</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102.5195693969727</v>
+        <v>102.7734680175781</v>
       </c>
       <c r="B4" t="n">
-        <v>673.8232421875</v>
+        <v>673.8678588867188</v>
       </c>
       <c r="C4" t="n">
-        <v>213.0860748291016</v>
+        <v>213.151123046875</v>
       </c>
       <c r="D4" t="n">
-        <v>738.6068725585938</v>
+        <v>738.549560546875</v>
       </c>
       <c r="E4" t="n">
-        <v>157.8028259277344</v>
+        <v>157.9622955322266</v>
       </c>
       <c r="F4" t="n">
-        <v>706.215087890625</v>
+        <v>706.208740234375</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>748.6539306640625</v>
+        <v>748.6944580078125</v>
       </c>
       <c r="B5" t="n">
-        <v>681.2216186523438</v>
+        <v>681.6043090820312</v>
       </c>
       <c r="C5" t="n">
-        <v>898.4948120117188</v>
+        <v>898.9909057617188</v>
       </c>
       <c r="D5" t="n">
-        <v>778.5650634765625</v>
+        <v>778.53466796875</v>
       </c>
       <c r="E5" t="n">
-        <v>823.5743408203125</v>
+        <v>823.8426513671875</v>
       </c>
       <c r="F5" t="n">
-        <v>729.893310546875</v>
+        <v>730.0694580078125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1126.04443359375</v>
+        <v>1126.191040039062</v>
       </c>
       <c r="B6" t="n">
-        <v>685.9649047851562</v>
+        <v>685.96630859375</v>
       </c>
       <c r="C6" t="n">
-        <v>1262.599731445312</v>
+        <v>1262.610107421875</v>
       </c>
       <c r="D6" t="n">
-        <v>783.66357421875</v>
+        <v>783.6984252929688</v>
       </c>
       <c r="E6" t="n">
-        <v>1194.322021484375</v>
+        <v>1194.400634765625</v>
       </c>
       <c r="F6" t="n">
-        <v>734.814208984375</v>
+        <v>734.8323974609375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>127.5724792480469</v>
+        <v>127.7054595947266</v>
       </c>
       <c r="B7" t="n">
-        <v>712.1087646484375</v>
+        <v>711.961669921875</v>
       </c>
       <c r="C7" t="n">
-        <v>213.5428924560547</v>
+        <v>213.5390472412109</v>
       </c>
       <c r="D7" t="n">
-        <v>783.792236328125</v>
+        <v>783.9715576171875</v>
       </c>
       <c r="E7" t="n">
-        <v>170.5576782226562</v>
+        <v>170.6222534179688</v>
       </c>
       <c r="F7" t="n">
-        <v>747.9505004882812</v>
+        <v>747.9666137695312</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>474.8350830078125</v>
+        <v>474.876708984375</v>
       </c>
       <c r="B8" t="n">
-        <v>686.69775390625</v>
+        <v>686.7194213867188</v>
       </c>
       <c r="C8" t="n">
-        <v>584.7774658203125</v>
+        <v>584.890869140625</v>
       </c>
       <c r="D8" t="n">
-        <v>815.6697998046875</v>
+        <v>815.651611328125</v>
       </c>
       <c r="E8" t="n">
-        <v>529.8062744140625</v>
+        <v>529.8837890625</v>
       </c>
       <c r="F8" t="n">
-        <v>751.1837768554688</v>
+        <v>751.185546875</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>477.8066711425781</v>
+        <v>477.9354553222656</v>
       </c>
       <c r="B9" t="n">
-        <v>699.7006225585938</v>
+        <v>699.7802734375</v>
       </c>
       <c r="C9" t="n">
-        <v>699.0720825195312</v>
+        <v>698.3851318359375</v>
       </c>
       <c r="D9" t="n">
-        <v>823.74951171875</v>
+        <v>823.7736206054688</v>
       </c>
       <c r="E9" t="n">
-        <v>588.4393920898438</v>
+        <v>588.1602783203125</v>
       </c>
       <c r="F9" t="n">
-        <v>761.72509765625</v>
+        <v>761.7769775390625</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1074.532470703125</v>
+        <v>1074.614379882812</v>
       </c>
       <c r="B10" t="n">
-        <v>703.7914428710938</v>
+        <v>703.6491088867188</v>
       </c>
       <c r="C10" t="n">
-        <v>1186.916625976562</v>
+        <v>1186.889892578125</v>
       </c>
       <c r="D10" t="n">
-        <v>827.5744018554688</v>
+        <v>827.3721313476562</v>
       </c>
       <c r="E10" t="n">
-        <v>1130.724609375</v>
+        <v>1130.752197265625</v>
       </c>
       <c r="F10" t="n">
-        <v>765.6829223632812</v>
+        <v>765.5106201171875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65.4046630859375</v>
+        <v>65.31729888916016</v>
       </c>
       <c r="B11" t="n">
-        <v>730.1297607421875</v>
+        <v>730.1376953125</v>
       </c>
       <c r="C11" t="n">
-        <v>193.0907287597656</v>
+        <v>191.7406768798828</v>
       </c>
       <c r="D11" t="n">
-        <v>811.7968139648438</v>
+        <v>811.5953979492188</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2476959228516</v>
+        <v>128.5289916992188</v>
       </c>
       <c r="F11" t="n">
-        <v>770.9632568359375</v>
+        <v>770.8665771484375</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>574.8504028320312</v>
+        <v>574.8504638671875</v>
       </c>
       <c r="B12" t="n">
-        <v>719.5870361328125</v>
+        <v>719.658447265625</v>
       </c>
       <c r="C12" t="n">
-        <v>729.4849243164062</v>
+        <v>728.9393310546875</v>
       </c>
       <c r="D12" t="n">
-        <v>827.6929321289062</v>
+        <v>827.654052734375</v>
       </c>
       <c r="E12" t="n">
-        <v>652.1676635742188</v>
+        <v>651.8948974609375</v>
       </c>
       <c r="F12" t="n">
-        <v>773.6400146484375</v>
+        <v>773.65625</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>991.3088989257812</v>
+        <v>991.4761352539062</v>
       </c>
       <c r="B13" t="n">
-        <v>719.9902954101562</v>
+        <v>719.84619140625</v>
       </c>
       <c r="C13" t="n">
-        <v>1132.587524414062</v>
+        <v>1132.593505859375</v>
       </c>
       <c r="D13" t="n">
-        <v>892.6895751953125</v>
+        <v>892.904052734375</v>
       </c>
       <c r="E13" t="n">
-        <v>1061.9482421875</v>
+        <v>1062.034790039062</v>
       </c>
       <c r="F13" t="n">
-        <v>806.3399658203125</v>
+        <v>806.3751220703125</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>378.8389892578125</v>
+        <v>378.7953796386719</v>
       </c>
       <c r="B14" t="n">
-        <v>755.994384765625</v>
+        <v>755.7742919921875</v>
       </c>
       <c r="C14" t="n">
-        <v>529.4432373046875</v>
+        <v>529.1730346679688</v>
       </c>
       <c r="D14" t="n">
-        <v>860.1617431640625</v>
+        <v>860.322509765625</v>
       </c>
       <c r="E14" t="n">
-        <v>454.14111328125</v>
+        <v>453.9841918945312</v>
       </c>
       <c r="F14" t="n">
-        <v>808.0780639648438</v>
+        <v>808.0484008789062</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>257.97119140625</v>
+        <v>258.2902526855469</v>
       </c>
       <c r="B15" t="n">
-        <v>762.3685302734375</v>
+        <v>762.0828857421875</v>
       </c>
       <c r="C15" t="n">
-        <v>366.7447204589844</v>
+        <v>366.51953125</v>
       </c>
       <c r="D15" t="n">
-        <v>878.8646850585938</v>
+        <v>878.9318237304688</v>
       </c>
       <c r="E15" t="n">
-        <v>312.3579711914062</v>
+        <v>312.4049072265625</v>
       </c>
       <c r="F15" t="n">
-        <v>820.6165771484375</v>
+        <v>820.50732421875</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74.90249633789062</v>
+        <v>74.94058227539062</v>
       </c>
       <c r="B16" t="n">
-        <v>777.85302734375</v>
+        <v>777.9379272460938</v>
       </c>
       <c r="C16" t="n">
-        <v>275.1829833984375</v>
+        <v>275.1400756835938</v>
       </c>
       <c r="D16" t="n">
-        <v>913.8900146484375</v>
+        <v>913.6381225585938</v>
       </c>
       <c r="E16" t="n">
-        <v>175.0427398681641</v>
+        <v>175.0403289794922</v>
       </c>
       <c r="F16" t="n">
-        <v>845.8715209960938</v>
+        <v>845.7880249023438</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>871.46337890625</v>
+        <v>871.416015625</v>
       </c>
       <c r="B17" t="n">
-        <v>761.759033203125</v>
+        <v>761.7074584960938</v>
       </c>
       <c r="C17" t="n">
-        <v>1041.856079101562</v>
+        <v>1041.743408203125</v>
       </c>
       <c r="D17" t="n">
-        <v>967.7383422851562</v>
+        <v>967.28955078125</v>
       </c>
       <c r="E17" t="n">
-        <v>956.6597290039062</v>
+        <v>956.5797119140625</v>
       </c>
       <c r="F17" t="n">
-        <v>864.7486572265625</v>
+        <v>864.49853515625</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>374.0459899902344</v>
+        <v>373.959716796875</v>
       </c>
       <c r="B18" t="n">
-        <v>760.0640869140625</v>
+        <v>760.07763671875</v>
       </c>
       <c r="C18" t="n">
-        <v>539.87451171875</v>
+        <v>539.8352661132812</v>
       </c>
       <c r="D18" t="n">
-        <v>1088.662719726562</v>
+        <v>1088.651000976562</v>
       </c>
       <c r="E18" t="n">
-        <v>456.9602661132812</v>
+        <v>456.8974914550781</v>
       </c>
       <c r="F18" t="n">
-        <v>924.3634033203125</v>
+        <v>924.3643188476562</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -987,22 +987,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64.060791015625</v>
+        <v>63.90187072753906</v>
       </c>
       <c r="B19" t="n">
-        <v>786.2266235351562</v>
+        <v>786.6278076171875</v>
       </c>
       <c r="C19" t="n">
-        <v>324.8753967285156</v>
+        <v>327.1924133300781</v>
       </c>
       <c r="D19" t="n">
-        <v>1077.751098632812</v>
+        <v>1077.239624023438</v>
       </c>
       <c r="E19" t="n">
-        <v>194.4680938720703</v>
+        <v>195.5471496582031</v>
       </c>
       <c r="F19" t="n">
-        <v>931.9888916015625</v>
+        <v>931.9337158203125</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>716.6735229492188</v>
+        <v>716.8938598632812</v>
       </c>
       <c r="B20" t="n">
-        <v>796.5006713867188</v>
+        <v>796.5958862304688</v>
       </c>
       <c r="C20" t="n">
-        <v>927.0062866210938</v>
+        <v>926.9159545898438</v>
       </c>
       <c r="D20" t="n">
-        <v>1070.055786132812</v>
+        <v>1069.643798828125</v>
       </c>
       <c r="E20" t="n">
-        <v>821.8399047851562</v>
+        <v>821.9049072265625</v>
       </c>
       <c r="F20" t="n">
-        <v>933.2781982421875</v>
+        <v>933.119873046875</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>421.314697265625</v>
+        <v>421.8106079101562</v>
       </c>
       <c r="B21" t="n">
-        <v>868.6505737304688</v>
+        <v>868.46923828125</v>
       </c>
       <c r="C21" t="n">
-        <v>749.5437622070312</v>
+        <v>749.4236450195312</v>
       </c>
       <c r="D21" t="n">
-        <v>1193.36669921875</v>
+        <v>1193.306396484375</v>
       </c>
       <c r="E21" t="n">
-        <v>585.42919921875</v>
+        <v>585.6171264648438</v>
       </c>
       <c r="F21" t="n">
-        <v>1031.008666992188</v>
+        <v>1030.887817382812</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>31.38969421386719</v>
+        <v>31.25490188598633</v>
       </c>
       <c r="B22" t="n">
-        <v>978.24951171875</v>
+        <v>978.4403076171875</v>
       </c>
       <c r="C22" t="n">
-        <v>394.7884826660156</v>
+        <v>394.8271179199219</v>
       </c>
       <c r="D22" t="n">
-        <v>1199.018798828125</v>
+        <v>1199.018188476562</v>
       </c>
       <c r="E22" t="n">
-        <v>213.0890808105469</v>
+        <v>213.041015625</v>
       </c>
       <c r="F22" t="n">
-        <v>1088.634155273438</v>
+        <v>1088.729248046875</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
